--- a/overhead/visualization/lf_centralized.xlsx
+++ b/overhead/visualization/lf_centralized.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacky\Desktop\ros\Visualizations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacky\Desktop\hplf_benchmarks\overhead\visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FDFC60-9D33-48EB-9B70-FB4EBE45AF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D52C14-2082-46FB-86B0-50BEFBEF2678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13770" yWindow="0" windowWidth="14775" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13215" yWindow="2115" windowWidth="14775" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="291">
   <si>
     <t>Episode: 25</t>
   </si>
@@ -117,562 +117,787 @@
     <t>50MB</t>
   </si>
   <si>
-    <t>Time taken: 14.27885 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.06177 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 14.79571 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.01686 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 15.40187 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.10616 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 15.95526 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.05338 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 16.51210 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.05685 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 17.07489 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.06279 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 17.68228 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.10739 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 18.29115 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.10887 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 18.85526 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.06411 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 19.41590 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.06064 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 19.97140 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.05550 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 20.52637 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.05497 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 21.08586 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.05949 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 21.70183 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.11597 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 22.31218 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.11035 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 22.91141 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.09923 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 23.47728 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.06587 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 24.03471 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.05743 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 24.63165 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.09694 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 25.19424 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.06259 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 25.80112 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.10687 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 26.40265 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.10154 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 27.00205 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.09940 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 27.61232 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.11027 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 28.21416 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.10183 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 28.76625 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.05210 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 17.89733 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.21926 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 18.59076 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.19342 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 19.30548 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.21473 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 19.97566 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.17018 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 20.65348 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.17782 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 21.37012 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.21664 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 22.04647 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.17636 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 22.68596 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.13948 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 23.38913 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.20317 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 24.10199 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.21286 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 24.81501 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.21302 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 25.52715 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.21214 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 26.18741 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.16026 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 26.86004 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.17263 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 27.52170 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.16166 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 28.14033 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.11863 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 28.85257 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.21224 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 29.51650 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.16393 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 30.17852 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.16202 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 30.83621 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.15769 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 31.50263 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.16642 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 32.20992 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.20729 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 32.86993 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.16002 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 33.58135 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.21141 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 34.28401 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.20267 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 34.97931 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.19530 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 22.29436 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.39021 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 23.19146 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.39710 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 24.03759 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.34613 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 24.88788 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.35029 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 25.78255 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.39467 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 26.62017 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.33762 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 27.47724 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.35707 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 28.36066 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.38342 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 29.25792 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.39725 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 30.16539 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.40747 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 31.01750 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.35211 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 31.85933 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.34183 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 32.76263 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.40330 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 33.58745 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.32482 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 34.45157 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.36412 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 35.30055 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.34898 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 36.19307 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.39253 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 37.03025 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.33717 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 37.88166 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.35142 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 38.81225 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.43059 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 39.64092 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.32866 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 40.55372 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.41281 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 41.40853 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.35480 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 42.36111 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.45259 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 43.25617 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.39506 seconds</t>
-  </si>
-  <si>
-    <t>Time taken: 44.28336 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.52719 seconds</t>
-  </si>
-  <si>
-    <t>Episode: 1</t>
-  </si>
-  <si>
-    <t>Time taken: 1.26544 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.76537 seconds</t>
-  </si>
-  <si>
-    <t>Episode: 2</t>
-  </si>
-  <si>
-    <t>Time taken: 2.59133 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.82589 seconds</t>
-  </si>
-  <si>
-    <t>Episode: 3</t>
-  </si>
-  <si>
-    <t>Time taken: 3.93762 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.84628 seconds</t>
-  </si>
-  <si>
-    <t>Episode: 4</t>
-  </si>
-  <si>
-    <t>Time taken: 5.25595 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.81833 seconds</t>
-  </si>
-  <si>
-    <t>Episode: 5</t>
-  </si>
-  <si>
-    <t>Time taken: 6.52140 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.76545 seconds</t>
-  </si>
-  <si>
-    <t>Episode: 6</t>
-  </si>
-  <si>
-    <t>Time taken: 7.73428 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.71288 seconds</t>
-  </si>
-  <si>
-    <t>Episode: 7</t>
-  </si>
-  <si>
-    <t>Time taken: 8.92779 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.69352 seconds</t>
-  </si>
-  <si>
-    <t>Episode: 8</t>
-  </si>
-  <si>
-    <t>Time taken: 10.40919 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.98140 seconds</t>
-  </si>
-  <si>
-    <t>Episode: 9</t>
-  </si>
-  <si>
-    <t>Time taken: 11.72483 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.81564 seconds</t>
-  </si>
-  <si>
-    <t>Episode: 10</t>
-  </si>
-  <si>
-    <t>Time taken: 13.13080 seconds</t>
-  </si>
-  <si>
-    <t>Overhead: 0.90596 seconds</t>
+    <t>Time taken: 12.97873 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00430 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 13.48261 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00388 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 14.03412 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.05151 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 14.53860 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00448 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 15.04279 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00419 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 15.59413 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.05133 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 16.10049 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00636 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 16.60483 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00433 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 17.15500 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.05017 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 17.66112 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00612 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 18.16634 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00522 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 18.71489 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.04855 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 19.22061 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00573 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 19.72473 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00412 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 20.27510 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.05037 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 20.78017 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00507 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 21.28484 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00467 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 21.78968 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00484 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 22.33464 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.04496 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 22.83954 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00490 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 23.34379 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00425 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 23.89513 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.05134 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 24.40128 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00615 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 24.90688 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00560 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 25.45420 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.04732 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 25.96013 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00593 seconds</t>
+  </si>
+  <si>
+    <t>5MB</t>
+  </si>
+  <si>
+    <t>Time taken: 13.02733 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00960 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 13.57957 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.05224 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 14.08738 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00781 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 14.59474 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00735 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 15.15049 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.05575 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 15.66128 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.01080 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 16.17081 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00952 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 16.72013 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.04932 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 17.22925 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00912 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 17.73731 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00806 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 18.28991 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.05261 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 18.79960 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00969 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 19.30832 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00872 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 19.81837 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.01004 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 20.37024 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.05187 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 20.87726 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00702 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 21.38821 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.01095 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 21.94243 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.05422 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 22.45445 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.01202 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 22.96274 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00829 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 23.51967 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.05693 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 24.02817 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00850 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 24.53816 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.01000 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 25.08965 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.05148 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 25.60022 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.01058 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 26.10840 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.00818 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 13.32624 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.02188 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 13.89493 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.06869 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 14.41820 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.02327 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 14.94109 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.02289 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 15.50491 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.06382 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 16.02384 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.01893 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 16.54453 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.02069 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 17.10480 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.06027 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 17.62445 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.01965 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 18.14413 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.01968 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 18.70527 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.06114 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 19.22795 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.02268 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 19.74949 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.02154 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 20.31533 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.06583 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 20.83476 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.01943 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 21.35555 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.02079 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 21.91563 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.06008 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 22.43589 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.02026 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 22.95343 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.01753 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 23.51488 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.06146 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 24.03647 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.02159 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 24.55677 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.02030 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 25.11494 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.05817 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 25.63499 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.02005 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 26.16049 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.02550 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 26.72577 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.06528 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 13.94463 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.05094 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 14.48543 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.04080 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 15.08405 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.09862 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 15.62294 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.03889 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 16.14837 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.02543 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 16.71418 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.06581 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 17.24065 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.02647 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 17.76641 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.02576 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 18.33354 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.06713 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 18.86194 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.02841 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 19.38441 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.02247 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 19.94443 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.06001 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 20.46807 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.02365 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 20.99602 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.02794 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 21.56382 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.06780 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 22.08578 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.02196 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 22.61205 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.02627 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 23.17420 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.06215 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 23.69613 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.02193 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 24.21623 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.02010 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 24.78385 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.06762 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 25.30617 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.02232 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 25.82845 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.02228 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 26.39470 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.06625 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 26.91660 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.02190 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 27.43780 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.02119 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 13.91613 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.03908 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 14.45587 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.03974 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 15.03659 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.08072 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 15.57374 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.03715 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 16.11013 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.03639 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 16.69622 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.08609 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 17.23790 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.04167 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 17.77195 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.03405 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 18.34626 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.07431 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 18.88328 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.03702 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 19.43165 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.04837 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 20.00717 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.07552 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 20.56154 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.05436 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 21.09995 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.03841 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 21.68891 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.08896 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 22.22657 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.03765 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 22.76722 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.04065 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 23.34636 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.07914 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 23.89227 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.04591 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 24.43594 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.04367 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 25.01690 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.08096 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 25.55714 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.04024 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 26.18793 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.13078 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 26.72527 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.03734 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 27.26764 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.04237 seconds</t>
+  </si>
+  <si>
+    <t>Time taken: 27.84720 seconds</t>
+  </si>
+  <si>
+    <t>Overhead: 0.07956 seconds</t>
   </si>
 </sst>
 </file>
@@ -990,32 +1215,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1026,38 +1254,47 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1068,38 +1305,47 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="E7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="E8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1110,38 +1356,47 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="E12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1152,38 +1407,47 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="E15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="E16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1194,38 +1458,47 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D19" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="E19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="E20" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1236,38 +1509,47 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="E23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D24" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="E24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1278,38 +1560,47 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D27" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="E27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="E28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1320,38 +1611,47 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D31" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="E31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D32" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="E32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1362,38 +1662,47 @@
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D35" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="E35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D36" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="E36" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1404,38 +1713,47 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D39" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E39" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D40" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="E40" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1445,30 +1763,48 @@
       <c r="C42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C43" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="D43" t="s">
+        <v>207</v>
+      </c>
+      <c r="E43" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="D44" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -1478,30 +1814,48 @@
       <c r="C46" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="D47" t="s">
+        <v>209</v>
+      </c>
+      <c r="E47" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="D48" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -1511,30 +1865,48 @@
       <c r="C50" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="D51" t="s">
+        <v>211</v>
+      </c>
+      <c r="E51" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C52" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="D52" t="s">
+        <v>212</v>
+      </c>
+      <c r="E52" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -1544,30 +1916,48 @@
       <c r="C54" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C55" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="D55" t="s">
+        <v>213</v>
+      </c>
+      <c r="E55" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C56" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="D56" t="s">
+        <v>214</v>
+      </c>
+      <c r="E56" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -1577,30 +1967,48 @@
       <c r="C58" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C59" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="D59" t="s">
+        <v>215</v>
+      </c>
+      <c r="E59" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C60" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="D60" t="s">
+        <v>216</v>
+      </c>
+      <c r="E60" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -1610,30 +2018,48 @@
       <c r="C62" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C63" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="D63" t="s">
+        <v>217</v>
+      </c>
+      <c r="E63" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C64" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="D64" t="s">
+        <v>218</v>
+      </c>
+      <c r="E64" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -1643,30 +2069,48 @@
       <c r="C66" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C67" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="D67" t="s">
+        <v>219</v>
+      </c>
+      <c r="E67" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C68" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="D68" t="s">
+        <v>220</v>
+      </c>
+      <c r="E68" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -1676,30 +2120,48 @@
       <c r="C70" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C71" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="D71" t="s">
+        <v>221</v>
+      </c>
+      <c r="E71" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C72" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="D72" t="s">
+        <v>222</v>
+      </c>
+      <c r="E72" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -1709,30 +2171,48 @@
       <c r="C74" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>66</v>
       </c>
       <c r="B75" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C75" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="D75" t="s">
+        <v>223</v>
+      </c>
+      <c r="E75" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>67</v>
       </c>
       <c r="B76" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C76" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="D76" t="s">
+        <v>224</v>
+      </c>
+      <c r="E76" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -1742,30 +2222,48 @@
       <c r="C78" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>68</v>
       </c>
       <c r="B79" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C79" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="D79" t="s">
+        <v>225</v>
+      </c>
+      <c r="E79" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>69</v>
       </c>
       <c r="B80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C80" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="D80" t="s">
+        <v>226</v>
+      </c>
+      <c r="E80" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -1775,30 +2273,48 @@
       <c r="C82" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>70</v>
       </c>
       <c r="B83" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="D83" t="s">
+        <v>227</v>
+      </c>
+      <c r="E83" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>71</v>
       </c>
       <c r="B84" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C84" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="D84" t="s">
+        <v>228</v>
+      </c>
+      <c r="E84" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -1808,30 +2324,48 @@
       <c r="C86" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>72</v>
       </c>
       <c r="B87" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C87" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="D87" t="s">
+        <v>229</v>
+      </c>
+      <c r="E87" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>73</v>
       </c>
       <c r="B88" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C88" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="D88" t="s">
+        <v>230</v>
+      </c>
+      <c r="E88" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>22</v>
       </c>
@@ -1841,30 +2375,48 @@
       <c r="C90" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>74</v>
       </c>
       <c r="B91" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C91" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="D91" t="s">
+        <v>231</v>
+      </c>
+      <c r="E91" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>75</v>
       </c>
       <c r="B92" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C92" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="D92" t="s">
+        <v>232</v>
+      </c>
+      <c r="E92" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -1874,30 +2426,48 @@
       <c r="C94" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>76</v>
       </c>
       <c r="B95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C95" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="D95" t="s">
+        <v>233</v>
+      </c>
+      <c r="E95" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>77</v>
       </c>
       <c r="B96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C96" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="D96" t="s">
+        <v>234</v>
+      </c>
+      <c r="E96" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>24</v>
       </c>
@@ -1907,30 +2477,48 @@
       <c r="C98" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>78</v>
       </c>
       <c r="B99" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C99" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="D99" t="s">
+        <v>235</v>
+      </c>
+      <c r="E99" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>79</v>
       </c>
       <c r="B100" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C100" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="D100" t="s">
+        <v>236</v>
+      </c>
+      <c r="E100" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>25</v>
       </c>
@@ -1940,27 +2528,45 @@
       <c r="C102" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>80</v>
       </c>
       <c r="B103" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C103" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="D103" t="s">
+        <v>237</v>
+      </c>
+      <c r="E103" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>81</v>
       </c>
       <c r="B104" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C104" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="D104" t="s">
+        <v>238</v>
+      </c>
+      <c r="E104" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
